--- a/SPMF.xlsx
+++ b/SPMF.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="332">
   <si>
     <t>Itemset Mining (Frequent Itemsets, Rare Itemsets, etc.)</t>
   </si>
@@ -728,109 +728,13 @@
     <t>estDec+</t>
   </si>
   <si>
-    <t>FHM</t>
-  </si>
-  <si>
-    <t>EFIM</t>
-  </si>
-  <si>
-    <t>HUI-Miner</t>
-  </si>
-  <si>
-    <t>HUP-Miner</t>
-  </si>
-  <si>
-    <t>UP-Growth / UP-Growth+</t>
-  </si>
-  <si>
-    <t>IHUP</t>
-  </si>
-  <si>
-    <t>mHUIMiner</t>
-  </si>
-  <si>
-    <t>HMiner</t>
-  </si>
-  <si>
-    <t>ULB-Miner</t>
-  </si>
-  <si>
-    <t>UFH</t>
-  </si>
-  <si>
-    <t>d2HUP</t>
-  </si>
-  <si>
-    <t>FHM+</t>
-  </si>
-  <si>
-    <t>FCHM_bond</t>
-  </si>
-  <si>
-    <t>FCHM_allconfidence</t>
-  </si>
-  <si>
-    <t>FHMFreq</t>
-  </si>
-  <si>
-    <t>FHN</t>
-  </si>
-  <si>
-    <t>HUINIV-Mine</t>
-  </si>
-  <si>
-    <t>FOSHU</t>
-  </si>
-  <si>
-    <t>TS-HOUN</t>
-  </si>
-  <si>
     <t>EIHI  (source code version only)</t>
   </si>
   <si>
     <t>HUI-LIST-INS  (source code version only)</t>
   </si>
   <si>
-    <t>EFIM-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHUI-Miner </t>
-  </si>
-  <si>
-    <t>CHUI-Miner(Max)</t>
-  </si>
-  <si>
-    <t>CHUD</t>
-  </si>
-  <si>
-    <t>GHUI-Miner</t>
-  </si>
-  <si>
-    <t>HUG-Miner</t>
-  </si>
-  <si>
-    <t>MinFHM</t>
-  </si>
-  <si>
     <t>SkyMine</t>
-  </si>
-  <si>
-    <t>HUSRM</t>
-  </si>
-  <si>
-    <t>USPAN</t>
-  </si>
-  <si>
-    <t>PHUSPM</t>
-  </si>
-  <si>
-    <t>UHUSPM</t>
-  </si>
-  <si>
-    <t>HUIM-BPSO</t>
-  </si>
-  <si>
-    <t>HUIM-GA</t>
   </si>
   <si>
     <t>HUIM-BPSO-tree</t>
@@ -1013,6 +917,111 @@
   </si>
   <si>
     <t xml:space="preserve">Space + </t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FHM DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>Space + :</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run EFIM DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HUI-Miner DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HUP-Miner DB_utility.txt output.txt 30 2</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run UPGrowth DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run IHUP DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run mHUIMiner DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HMiner DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run ULB-Miner DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run UFH DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run D2HUP DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FHM+ DB_utility.txt output.txt 30 2 3</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FCHM_bond DB_utility.txt output.txt 30 0.5</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FCHM_allconfidence DB_utility.txt output.txt 30 0.5</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FHM DB_utility.txt output.txt 30 0.4</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FHN DB_NegativeUtility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HUINIV-Mine DB_NegativeUtility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run FOSHU DB_FOSHU.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run TS-HOUN DB_FOSHU.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run EFIM-Closed DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run CHUI-Miner DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run CHUI-MinerMax DB_utility.txt output.txt 25</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run CHUD DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run GHUI-Miner DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HUG-Miner DB_utility.txt output.txt 20</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run MinFHM DB_utility.txt output.txt 30</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run SkyMine SkyMineTransaction.txt output.txt SkyMineItemUtilities.txt</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run USpan DataBase_HUSRM.txt output.txt 35 4</t>
+  </si>
+  <si>
+    <t>Very different input file</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run PHUSPM contextPHUSPM.txt output.txt 20 1.4</t>
+  </si>
+  <si>
+    <t>File with -1 and probability</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run UHUSPMcontextPHUSPM.txt output.txt 20 1.4</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HUIM-BPSO contextHUIM.txt output.txt 40</t>
+  </si>
+  <si>
+    <t>java -jar spmf.jar run HUIM-GA contextHUIM.txt output.txt 40</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1378,10 +1387,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1392,10 +1401,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1406,10 +1415,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1420,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1434,10 +1443,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1448,10 +1457,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1462,10 +1471,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1476,10 +1485,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1490,10 +1499,10 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1504,10 +1513,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="D11" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1518,10 +1527,10 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1532,10 +1541,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1546,10 +1555,10 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1560,10 +1569,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1574,10 +1583,10 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1588,10 +1597,10 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1602,10 +1611,10 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1616,10 +1625,10 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1630,10 +1639,10 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D20" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1644,10 +1653,10 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1658,10 +1667,10 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="D22" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1672,10 +1681,10 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D23" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1686,10 +1695,10 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1700,10 +1709,10 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,10 +1756,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="D29" t="s">
-        <v>315</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +1770,10 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D30" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1797,10 +1806,10 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="D33" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1811,10 +1820,10 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1825,10 +1834,10 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="D35" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1839,10 +1848,10 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>321</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,10 +1862,10 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="D37" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1867,10 +1876,10 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="D38" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1881,10 +1890,10 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="D39" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1895,7 +1904,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>234</v>
+        <v>297</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1906,7 +1918,10 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>299</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1917,7 +1932,10 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>236</v>
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1928,7 +1946,10 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>237</v>
+        <v>301</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1939,7 +1960,10 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>238</v>
+        <v>302</v>
+      </c>
+      <c r="D44" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1950,7 +1974,10 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>239</v>
+        <v>303</v>
+      </c>
+      <c r="D45" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,7 +1988,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>304</v>
+      </c>
+      <c r="D46" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1972,7 +2002,10 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>305</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1983,10 +2016,13 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="D48" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -1994,10 +2030,13 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="D49" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2005,10 +2044,13 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="D50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2016,10 +2058,13 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="D51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2027,10 +2072,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="D52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2038,10 +2086,13 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+        <v>311</v>
+      </c>
+      <c r="D53" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2049,10 +2100,13 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+        <v>312</v>
+      </c>
+      <c r="D54" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2060,10 +2114,13 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+        <v>313</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2071,10 +2128,13 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="D56" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2082,10 +2142,13 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="D57" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2093,32 +2156,35 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C59" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C60" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2126,10 +2192,13 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="D61" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2137,10 +2206,13 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="D62" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2148,10 +2220,13 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="D63" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2159,10 +2234,13 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="D64" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2170,10 +2248,13 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="D65" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2181,10 +2262,13 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="D66" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -2192,10 +2276,13 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="D67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -2203,10 +2290,10 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2214,10 +2301,13 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="D69" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2225,10 +2315,13 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="D70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -2236,10 +2329,13 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="D71" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2247,10 +2343,13 @@
         <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="D72" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -2258,10 +2357,13 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2269,10 +2371,13 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="D74" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -2280,10 +2385,10 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -2291,10 +2396,10 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -2302,10 +2407,10 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2313,10 +2418,10 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2324,10 +2429,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2440,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2346,7 +2451,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2357,7 +2462,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -2368,7 +2473,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -2379,7 +2484,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2390,7 +2495,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2401,7 +2506,7 @@
         <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2412,7 +2517,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2423,7 +2528,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2445,7 +2550,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2500,7 +2605,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,7 +2616,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,7 +2660,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2566,7 +2671,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,7 +2682,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,235 +3339,204 @@
     <hyperlink ref="B85" r:id="rId45" display="http://www.philippe-fournier-viger.com/spmf/EHAUPM.php"/>
     <hyperlink ref="B86" r:id="rId46" display="http://www.philippe-fournier-viger.com/spmf/HAUI-MMAU.php"/>
     <hyperlink ref="B87" r:id="rId47" display="http://www.philippe-fournier-viger.com/spmf/MEMU.php"/>
-    <hyperlink ref="C40" r:id="rId48" display="http://www.philippe-fournier-viger.com/spmf/FHM.php"/>
-    <hyperlink ref="C41" r:id="rId49" display="http://www.philippe-fournier-viger.com/spmf/EFIM.php"/>
-    <hyperlink ref="C42" r:id="rId50" display="http://www.philippe-fournier-viger.com/spmf/HUI-Miner.php"/>
-    <hyperlink ref="C43" r:id="rId51" display="http://www.philippe-fournier-viger.com/spmf/HUP-Miner.php"/>
-    <hyperlink ref="C44" r:id="rId52" display="http://www.philippe-fournier-viger.com/spmf/UPGrowthPlus.php"/>
-    <hyperlink ref="C45" r:id="rId53" display="http://www.philippe-fournier-viger.com/spmf/IHUP.php"/>
-    <hyperlink ref="C46" r:id="rId54" display="http://www.philippe-fournier-viger.com/spmf/mHUIMiner.php"/>
-    <hyperlink ref="C47" r:id="rId55" display="http://www.philippe-fournier-viger.com/spmf/HMiner.php"/>
-    <hyperlink ref="C48" r:id="rId56" display="http://www.philippe-fournier-viger.com/spmf/ULBMiner.php"/>
-    <hyperlink ref="C49" r:id="rId57" display="http://www.philippe-fournier-viger.com/spmf/UFH.php"/>
-    <hyperlink ref="C50" r:id="rId58" display="http://www.philippe-fournier-viger.com/spmf/d2HUP.php"/>
-    <hyperlink ref="C51" r:id="rId59" display="http://www.philippe-fournier-viger.com/spmf/FHMPlus.php"/>
-    <hyperlink ref="C52" r:id="rId60" display="http://www.philippe-fournier-viger.com/spmf/FCHMbond.php"/>
-    <hyperlink ref="C53" r:id="rId61" display="http://www.philippe-fournier-viger.com/spmf/FCHMallconfidence.php"/>
-    <hyperlink ref="C54" r:id="rId62" display="http://www.philippe-fournier-viger.com/spmf/FHMFreq.php"/>
-    <hyperlink ref="C55" r:id="rId63" display="http://www.philippe-fournier-viger.com/spmf/FHN.php"/>
-    <hyperlink ref="C56" r:id="rId64" display="http://www.philippe-fournier-viger.com/spmf/HUINIVMine.php"/>
-    <hyperlink ref="C57" r:id="rId65" display="http://www.philippe-fournier-viger.com/spmf/FOSHU.php"/>
-    <hyperlink ref="C58" r:id="rId66" display="http://www.philippe-fournier-viger.com/spmf/TS-HOUN.php"/>
-    <hyperlink ref="C59" r:id="rId67" display="http://www.philippe-fournier-viger.com/spmf/EIHI.php"/>
-    <hyperlink ref="C60" r:id="rId68" display="http://www.philippe-fournier-viger.com/spmf/HUI-LIST_INS.php"/>
-    <hyperlink ref="C61" r:id="rId69" display="http://www.philippe-fournier-viger.com/spmf/EFIM-Closed.php"/>
-    <hyperlink ref="C62" r:id="rId70" display="http://www.philippe-fournier-viger.com/spmf/CHUI-Miner.php"/>
-    <hyperlink ref="C63" r:id="rId71" display="http://www.philippe-fournier-viger.com/spmf/CHUI-MinerMax.php"/>
-    <hyperlink ref="C64" r:id="rId72" display="http://www.philippe-fournier-viger.com/spmf/CHUD.php"/>
-    <hyperlink ref="C65" r:id="rId73" display="http://www.philippe-fournier-viger.com/spmf/GHUIMiner.php"/>
-    <hyperlink ref="C66" r:id="rId74" display="http://www.philippe-fournier-viger.com/spmf/HUG-Miner.php"/>
-    <hyperlink ref="C67" r:id="rId75" display="http://www.philippe-fournier-viger.com/spmf/MinFHM.php"/>
-    <hyperlink ref="C68" r:id="rId76" display="http://www.philippe-fournier-viger.com/spmf/SkyMine.php"/>
-    <hyperlink ref="C69" r:id="rId77" display="http://www.philippe-fournier-viger.com/spmf/HUSRM.php"/>
-    <hyperlink ref="C70" r:id="rId78" display="http://www.philippe-fournier-viger.com/spmf/USpan.php"/>
-    <hyperlink ref="C71" r:id="rId79" display="http://www.philippe-fournier-viger.com/spmf/PHUSPM.php"/>
-    <hyperlink ref="C72" r:id="rId80" display="http://www.philippe-fournier-viger.com/spmf/UHUSPM.php"/>
-    <hyperlink ref="C73" r:id="rId81" display="http://www.philippe-fournier-viger.com/spmf/HUIM-BPSO.php"/>
-    <hyperlink ref="C74" r:id="rId82" display="http://www.philippe-fournier-viger.com/spmf/HUIM-GA.php"/>
-    <hyperlink ref="C75" r:id="rId83" display="http://www.philippe-fournier-viger.com/spmf/HUIM-BPSO-tree.php"/>
-    <hyperlink ref="C76" r:id="rId84" display="http://www.philippe-fournier-viger.com/spmf/HUIM-GA-tree.php"/>
-    <hyperlink ref="C77" r:id="rId85" display="http://www.philippe-fournier-viger.com/spmf/HUIF-PSO.php"/>
-    <hyperlink ref="C78" r:id="rId86" display="http://www.philippe-fournier-viger.com/spmf/HUIF-GA.php"/>
-    <hyperlink ref="C79" r:id="rId87" display="http://www.philippe-fournier-viger.com/spmf/HUIF-BA.php"/>
-    <hyperlink ref="C80" r:id="rId88" display="http://www.philippe-fournier-viger.com/spmf/SFUPMinerUemax.php"/>
-    <hyperlink ref="C81" r:id="rId89" display="http://www.philippe-fournier-viger.com/spmf/TKU.php"/>
-    <hyperlink ref="C82" r:id="rId90" display="http://www.philippe-fournier-viger.com/spmf/TKO.php"/>
-    <hyperlink ref="C83" r:id="rId91" display="http://www.philippe-fournier-viger.com/spmf/FHMDS.php"/>
-    <hyperlink ref="C84" r:id="rId92" display="http://www.philippe-fournier-viger.com/spmf/HAUI-Miner.php"/>
-    <hyperlink ref="C85" r:id="rId93" display="http://www.philippe-fournier-viger.com/spmf/EHAUPM.php"/>
-    <hyperlink ref="C86" r:id="rId94" display="http://www.philippe-fournier-viger.com/spmf/HAUI-MMAU.php"/>
-    <hyperlink ref="C87" r:id="rId95" display="http://www.philippe-fournier-viger.com/spmf/MEMU.php"/>
-    <hyperlink ref="B88" r:id="rId96" display="http://www.philippe-fournier-viger.com/spmf/AssociationRules.php"/>
-    <hyperlink ref="B89" r:id="rId97" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesWithLift.php"/>
-    <hyperlink ref="B90" r:id="rId98" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesGCD.php"/>
-    <hyperlink ref="B91" r:id="rId99" display="http://www.philippe-fournier-viger.com/spmf/IGBAssociationRules.php"/>
-    <hyperlink ref="B92" r:id="rId100" display="http://www.philippe-fournier-viger.com/spmf/PerfectlySporadicAssociationRules.php"/>
-    <hyperlink ref="B93" r:id="rId101" display="http://www.philippe-fournier-viger.com/spmf/ClosedAssociationRules.php"/>
-    <hyperlink ref="B94" r:id="rId102" display="http://www.philippe-fournier-viger.com/spmf/MinimalNonRedundantAssociationRules.php"/>
-    <hyperlink ref="B95" r:id="rId103" display="http://www.philippe-fournier-viger.com/spmf/IndirectAssociationRules.php"/>
-    <hyperlink ref="B96" r:id="rId104" display="http://www.philippe-fournier-viger.com/spmf/SensitiveAssociationRules.php"/>
-    <hyperlink ref="B97" r:id="rId105" display="http://www.philippe-fournier-viger.com/spmf/TopKAssociationRules.php"/>
-    <hyperlink ref="B98" r:id="rId106" display="http://www.philippe-fournier-viger.com/spmf/TopKClassAssociationRules.php"/>
-    <hyperlink ref="B99" r:id="rId107" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantAssociationRules.php"/>
-    <hyperlink ref="C88" r:id="rId108" display="http://www.philippe-fournier-viger.com/spmf/AssociationRules.php"/>
-    <hyperlink ref="C89" r:id="rId109" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesWithLift.php"/>
-    <hyperlink ref="C90" r:id="rId110" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesGCD.php"/>
-    <hyperlink ref="C91" r:id="rId111" display="http://www.philippe-fournier-viger.com/spmf/IGBAssociationRules.php"/>
-    <hyperlink ref="C92" r:id="rId112" display="http://www.philippe-fournier-viger.com/spmf/PerfectlySporadicAssociationRules.php"/>
-    <hyperlink ref="C93" r:id="rId113" display="http://www.philippe-fournier-viger.com/spmf/ClosedAssociationRules.php"/>
-    <hyperlink ref="C94" r:id="rId114" display="http://www.philippe-fournier-viger.com/spmf/MinimalNonRedundantAssociationRules.php"/>
-    <hyperlink ref="C95" r:id="rId115" display="http://www.philippe-fournier-viger.com/spmf/IndirectAssociationRules.php"/>
-    <hyperlink ref="C96" r:id="rId116" display="http://www.philippe-fournier-viger.com/spmf/SensitiveAssociationRules.php"/>
-    <hyperlink ref="C97" r:id="rId117" display="http://www.philippe-fournier-viger.com/spmf/TopKAssociationRules.php"/>
-    <hyperlink ref="C98" r:id="rId118" display="http://www.philippe-fournier-viger.com/spmf/TopKClassAssociationRules.php"/>
-    <hyperlink ref="C99" r:id="rId119" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantAssociationRules.php"/>
-    <hyperlink ref="B100" r:id="rId120" display="http://www.philippe-fournier-viger.com/spmf/KMeans.php"/>
-    <hyperlink ref="B101" r:id="rId121" display="http://www.philippe-fournier-viger.com/spmf/DBScan.php"/>
-    <hyperlink ref="B102" r:id="rId122" display="http://www.philippe-fournier-viger.com/spmf/Optics.php"/>
-    <hyperlink ref="B103" r:id="rId123" display="http://www.philippe-fournier-viger.com/spmf/BisectingKMeans.php"/>
-    <hyperlink ref="B104" r:id="rId124" display="http://www.philippe-fournier-viger.com/spmf/HierarchicalClustering.php"/>
-    <hyperlink ref="B105" r:id="rId125" display="http://www.philippe-fournier-viger.com/spmf/ClusterViewer.php"/>
-    <hyperlink ref="B106" r:id="rId126" display="http://www.philippe-fournier-viger.com/spmf/InstanceViewer.php"/>
-    <hyperlink ref="C100" r:id="rId127" display="http://www.philippe-fournier-viger.com/spmf/KMeans.php"/>
-    <hyperlink ref="C101" r:id="rId128" display="http://www.philippe-fournier-viger.com/spmf/DBScan.php"/>
-    <hyperlink ref="C102" r:id="rId129" display="http://www.philippe-fournier-viger.com/spmf/Optics.php"/>
-    <hyperlink ref="C103" r:id="rId130" display="http://www.philippe-fournier-viger.com/spmf/BisectingKMeans.php"/>
-    <hyperlink ref="C104" r:id="rId131" display="http://www.philippe-fournier-viger.com/spmf/HierarchicalClustering.php"/>
-    <hyperlink ref="C105" r:id="rId132" display="http://www.philippe-fournier-viger.com/spmf/ClusterViewer.php"/>
-    <hyperlink ref="C106" r:id="rId133" display="http://www.philippe-fournier-viger.com/spmf/InstanceViewer.php"/>
-    <hyperlink ref="B107" r:id="rId134" display="http://www.philippe-fournier-viger.com/spmf/PrefixSpan.php"/>
-    <hyperlink ref="B108" r:id="rId135" display="http://www.philippe-fournier-viger.com/spmf/GSP.php"/>
-    <hyperlink ref="B109" r:id="rId136" display="http://www.philippe-fournier-viger.com/spmf/SPADE.php"/>
-    <hyperlink ref="B110" r:id="rId137" display="http://www.philippe-fournier-viger.com/spmf/CM-SPADE.php"/>
-    <hyperlink ref="B111" r:id="rId138" display="http://www.philippe-fournier-viger.com/spmf/SPAM.php"/>
-    <hyperlink ref="B112" r:id="rId139" display="http://www.philippe-fournier-viger.com/spmf/CM-SPAM.php"/>
-    <hyperlink ref="B113" r:id="rId140" display="http://www.philippe-fournier-viger.com/spmf/FAST.php"/>
-    <hyperlink ref="B114" r:id="rId141" display="http://www.philippe-fournier-viger.com/spmf/LAPIN.php"/>
-    <hyperlink ref="B115" r:id="rId142" display="http://www.philippe-fournier-viger.com/spmf/ClaSP.php"/>
-    <hyperlink ref="B116" r:id="rId143" display="http://www.philippe-fournier-viger.com/spmf/CM-ClaSP.php"/>
-    <hyperlink ref="B117" r:id="rId144" display="http://www.philippe-fournier-viger.com/spmf/CLOFAST.php"/>
-    <hyperlink ref="B118" r:id="rId145" display="http://www.philippe-fournier-viger.com/spmf/CloSpan.php"/>
-    <hyperlink ref="B119" r:id="rId146" display="http://www.philippe-fournier-viger.com/spmf/BIDEPlus.php"/>
-    <hyperlink ref="B120" r:id="rId147" display="http://www.philippe-fournier-viger.com/spmf/SPAM_PrefixSpan_Closed.php"/>
-    <hyperlink ref="B121" r:id="rId148" display="http://www.philippe-fournier-viger.com/spmf/MaxSP.php"/>
-    <hyperlink ref="B122" r:id="rId149" display="http://www.philippe-fournier-viger.com/spmf/VMSP.php"/>
-    <hyperlink ref="B123" r:id="rId150" display="http://www.philippe-fournier-viger.com/spmf/FEAT.php"/>
-    <hyperlink ref="B124" r:id="rId151" display="http://www.philippe-fournier-viger.com/spmf/FSGP.php"/>
-    <hyperlink ref="B125" r:id="rId152" display="http://www.philippe-fournier-viger.com/spmf/VGEN.php"/>
-    <hyperlink ref="B126" r:id="rId153" display="http://www.philippe-fournier-viger.com/spmf/GoKrimp.php"/>
-    <hyperlink ref="B127" r:id="rId154" display="http://www.philippe-fournier-viger.com/spmf/TKS.php"/>
-    <hyperlink ref="B128" r:id="rId155" display="http://www.philippe-fournier-viger.com/spmf/TSP.php"/>
-    <hyperlink ref="B129" r:id="rId156" display="http://www.philippe-fournier-viger.com/spmf/MultiDimensional_SequentialPatterns.php"/>
-    <hyperlink ref="B130" r:id="rId157" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatterns.php"/>
-    <hyperlink ref="B131" r:id="rId158" display="http://www.philippe-fournier-viger.com/spmf/HirateYamana.php"/>
-    <hyperlink ref="B132" r:id="rId159" display="http://www.philippe-fournier-viger.com/spmf/ClosedSequentialPatterns_TimeConstraints.php"/>
-    <hyperlink ref="B133" r:id="rId160" display="http://www.philippe-fournier-viger.com/spmf/SequentialPatterns_TimeConstraintsValuesItems.php"/>
-    <hyperlink ref="B134" r:id="rId161" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatternsWithTime.php"/>
-    <hyperlink ref="B135" r:id="rId162" display="http://www.philippe-fournier-viger.com/spmf/ProSecCo.php"/>
-    <hyperlink ref="C107" r:id="rId163" display="http://www.philippe-fournier-viger.com/spmf/PrefixSpan.php"/>
-    <hyperlink ref="C108" r:id="rId164" display="http://www.philippe-fournier-viger.com/spmf/GSP.php"/>
-    <hyperlink ref="C109" r:id="rId165" display="http://www.philippe-fournier-viger.com/spmf/SPADE.php"/>
-    <hyperlink ref="C110" r:id="rId166" display="http://www.philippe-fournier-viger.com/spmf/CM-SPADE.php"/>
-    <hyperlink ref="C111" r:id="rId167" display="http://www.philippe-fournier-viger.com/spmf/SPAM.php"/>
-    <hyperlink ref="C112" r:id="rId168" display="http://www.philippe-fournier-viger.com/spmf/CM-SPAM.php"/>
-    <hyperlink ref="C113" r:id="rId169" display="http://www.philippe-fournier-viger.com/spmf/FAST.php"/>
-    <hyperlink ref="C114" r:id="rId170" display="http://www.philippe-fournier-viger.com/spmf/LAPIN.php"/>
-    <hyperlink ref="C115" r:id="rId171" display="http://www.philippe-fournier-viger.com/spmf/ClaSP.php"/>
-    <hyperlink ref="C116" r:id="rId172" display="http://www.philippe-fournier-viger.com/spmf/CM-ClaSP.php"/>
-    <hyperlink ref="C117" r:id="rId173" display="http://www.philippe-fournier-viger.com/spmf/CLOFAST.php"/>
-    <hyperlink ref="C118" r:id="rId174" display="http://www.philippe-fournier-viger.com/spmf/CloSpan.php"/>
-    <hyperlink ref="C119" r:id="rId175" display="http://www.philippe-fournier-viger.com/spmf/BIDEPlus.php"/>
-    <hyperlink ref="C120" r:id="rId176" display="http://www.philippe-fournier-viger.com/spmf/SPAM_PrefixSpan_Closed.php"/>
-    <hyperlink ref="C121" r:id="rId177" display="http://www.philippe-fournier-viger.com/spmf/MaxSP.php"/>
-    <hyperlink ref="C122" r:id="rId178" display="http://www.philippe-fournier-viger.com/spmf/VMSP.php"/>
-    <hyperlink ref="C123" r:id="rId179" display="http://www.philippe-fournier-viger.com/spmf/FEAT.php"/>
-    <hyperlink ref="C124" r:id="rId180" display="http://www.philippe-fournier-viger.com/spmf/FSGP.php"/>
-    <hyperlink ref="C125" r:id="rId181" display="http://www.philippe-fournier-viger.com/spmf/VGEN.php"/>
-    <hyperlink ref="C126" r:id="rId182" display="http://www.philippe-fournier-viger.com/spmf/GoKrimp.php"/>
-    <hyperlink ref="C127" r:id="rId183" display="http://www.philippe-fournier-viger.com/spmf/TKS.php"/>
-    <hyperlink ref="C128" r:id="rId184" display="http://www.philippe-fournier-viger.com/spmf/TSP.php"/>
-    <hyperlink ref="C129" r:id="rId185" display="http://www.philippe-fournier-viger.com/spmf/MultiDimensional_SequentialPatterns.php"/>
-    <hyperlink ref="C130" r:id="rId186" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatterns.php"/>
-    <hyperlink ref="C131" r:id="rId187" display="http://www.philippe-fournier-viger.com/spmf/HirateYamana.php"/>
-    <hyperlink ref="C132" r:id="rId188" display="http://www.philippe-fournier-viger.com/spmf/ClosedSequentialPatterns_TimeConstraints.php"/>
-    <hyperlink ref="C133" r:id="rId189" display="http://www.philippe-fournier-viger.com/spmf/SequentialPatterns_TimeConstraintsValuesItems.php"/>
-    <hyperlink ref="C134" r:id="rId190" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatternsWithTime.php"/>
-    <hyperlink ref="C135" r:id="rId191" display="http://www.philippe-fournier-viger.com/spmf/ProSecCo.php"/>
-    <hyperlink ref="B136" r:id="rId192" display="http://www.philippe-fournier-viger.com/spmf/CMRules.php"/>
-    <hyperlink ref="B137" r:id="rId193" display="http://www.philippe-fournier-viger.com/spmf/CMDeo.php"/>
-    <hyperlink ref="B138" r:id="rId194" display="http://www.philippe-fournier-viger.com/spmf/RuleGrowth.php"/>
-    <hyperlink ref="B139" r:id="rId195" display="http://www.philippe-fournier-viger.com/spmf/ERMiner.php"/>
-    <hyperlink ref="B140" r:id="rId196" display="http://www.philippe-fournier-viger.com/spmf/RuleGen.php"/>
-    <hyperlink ref="B141" r:id="rId197" display="http://www.philippe-fournier-viger.com/spmf/TRuleGrowth.php"/>
-    <hyperlink ref="B142" r:id="rId198" display="http://www.philippe-fournier-viger.com/spmf/TopSeqRules.php"/>
-    <hyperlink ref="B143" r:id="rId199" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantSequentialRules.php"/>
-    <hyperlink ref="C136" r:id="rId200" display="http://www.philippe-fournier-viger.com/spmf/CMRules.php"/>
-    <hyperlink ref="C137" r:id="rId201" display="http://www.philippe-fournier-viger.com/spmf/CMDeo.php"/>
-    <hyperlink ref="C138" r:id="rId202" display="http://www.philippe-fournier-viger.com/spmf/RuleGrowth.php"/>
-    <hyperlink ref="C139" r:id="rId203" display="http://www.philippe-fournier-viger.com/spmf/ERMiner.php"/>
-    <hyperlink ref="C140" r:id="rId204" display="http://www.philippe-fournier-viger.com/spmf/RuleGen.php"/>
-    <hyperlink ref="C141" r:id="rId205" display="http://www.philippe-fournier-viger.com/spmf/TRuleGrowth.php"/>
-    <hyperlink ref="C142" r:id="rId206" display="http://www.philippe-fournier-viger.com/spmf/TopSeqRules.php"/>
-    <hyperlink ref="C143" r:id="rId207" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantSequentialRules.php"/>
-    <hyperlink ref="B144" r:id="rId208" display="http://www.philippe-fournier-viger.com/spmf/CPTPlus.php"/>
-    <hyperlink ref="B145" r:id="rId209" display="http://www.philippe-fournier-viger.com/spmf/CPT.php"/>
-    <hyperlink ref="B146" r:id="rId210" display="http://www.philippe-fournier-viger.com/spmf/PPM.php"/>
-    <hyperlink ref="B147" r:id="rId211" display="http://www.philippe-fournier-viger.com/spmf/DG.php"/>
-    <hyperlink ref="B148" r:id="rId212" display="http://www.philippe-fournier-viger.com/spmf/AKOM.php"/>
-    <hyperlink ref="B149" r:id="rId213" display="http://www.philippe-fournier-viger.com/spmf/TDAG.php"/>
-    <hyperlink ref="B150" r:id="rId214" display="http://www.philippe-fournier-viger.com/spmf/LZ78.php"/>
-    <hyperlink ref="B151" r:id="rId215" display="http://www.philippe-fournier-viger.com/spmf/CompareSequencePredictionModels.php"/>
-    <hyperlink ref="C144" r:id="rId216" display="http://www.philippe-fournier-viger.com/spmf/CPTPlus.php"/>
-    <hyperlink ref="C145" r:id="rId217" display="http://www.philippe-fournier-viger.com/spmf/CPT.php"/>
-    <hyperlink ref="C146" r:id="rId218" display="http://www.philippe-fournier-viger.com/spmf/PPM.php"/>
-    <hyperlink ref="C147" r:id="rId219" display="http://www.philippe-fournier-viger.com/spmf/DG.php"/>
-    <hyperlink ref="C148" r:id="rId220" display="http://www.philippe-fournier-viger.com/spmf/AKOM.php"/>
-    <hyperlink ref="C149" r:id="rId221" display="http://www.philippe-fournier-viger.com/spmf/TDAG.php"/>
-    <hyperlink ref="C150" r:id="rId222" display="http://www.philippe-fournier-viger.com/spmf/LZ78.php"/>
-    <hyperlink ref="C151" r:id="rId223" display="http://www.philippe-fournier-viger.com/spmf/CompareSequencePredictionModels.php"/>
-    <hyperlink ref="B152" r:id="rId224" display="http://www.philippe-fournier-viger.com/spmf/PFPM.php"/>
-    <hyperlink ref="B153" r:id="rId225" display="http://www.philippe-fournier-viger.com/spmf/PHM.php"/>
-    <hyperlink ref="C152" r:id="rId226" display="http://www.philippe-fournier-viger.com/spmf/PFPM.php"/>
-    <hyperlink ref="C153" r:id="rId227" display="http://www.philippe-fournier-viger.com/spmf/PHM.php"/>
-    <hyperlink ref="B154" r:id="rId228" display="http://www.philippe-fournier-viger.com/spmf/TUP.php"/>
-    <hyperlink ref="B155" r:id="rId229" display="http://www.philippe-fournier-viger.com/spmf/UP_SPAN.php"/>
-    <hyperlink ref="C154" r:id="rId230" display="http://www.philippe-fournier-viger.com/spmf/TUP.php"/>
-    <hyperlink ref="C155" r:id="rId231" display="http://www.philippe-fournier-viger.com/spmf/UP_SPAN.php"/>
-    <hyperlink ref="B156" r:id="rId232" display="http://www.philippe-fournier-viger.com/spmf/TextClusterer.php"/>
-    <hyperlink ref="B157" r:id="rId233" display="http://www.philippe-fournier-viger.com/spmf/TextClassifierNaiveBayes.php"/>
-    <hyperlink ref="C156" r:id="rId234" display="http://www.philippe-fournier-viger.com/spmf/TextClusterer.php"/>
-    <hyperlink ref="C157" r:id="rId235" display="http://www.philippe-fournier-viger.com/spmf/TextClassifierNaiveBayes.php"/>
-    <hyperlink ref="B2" r:id="rId236" display="http://www.philippe-fournier-viger.com/spmf/Apriori.php"/>
-    <hyperlink ref="B3" r:id="rId237" display="http://www.philippe-fournier-viger.com/spmf/AprioriTID.php"/>
-    <hyperlink ref="B4" r:id="rId238" display="http://www.philippe-fournier-viger.com/spmf/FPGrowth.php"/>
-    <hyperlink ref="B5" r:id="rId239" display="http://www.philippe-fournier-viger.com/spmf/Relim.php"/>
-    <hyperlink ref="B6" r:id="rId240" display="http://www.philippe-fournier-viger.com/spmf/Eclat_dEclat.php"/>
-    <hyperlink ref="B7" r:id="rId241" display="http://www.philippe-fournier-viger.com/spmf/HMine.php"/>
-    <hyperlink ref="B8" r:id="rId242" display="http://www.philippe-fournier-viger.com/spmf/FIN.php"/>
-    <hyperlink ref="B9" r:id="rId243" display="http://www.philippe-fournier-viger.com/spmf/DFIN.php"/>
-    <hyperlink ref="B10" r:id="rId244" display="http://www.philippe-fournier-viger.com/spmf/NegFIN.php"/>
-    <hyperlink ref="B11" r:id="rId245" display="http://www.philippe-fournier-viger.com/spmf/PrePost.php"/>
-    <hyperlink ref="B12" r:id="rId246" display="http://www.philippe-fournier-viger.com/spmf/LCMFreq.php"/>
-    <hyperlink ref="B13" r:id="rId247" display="http://www.philippe-fournier-viger.com/spmf/AprioriClose.php"/>
-    <hyperlink ref="B14" r:id="rId248" display="http://www.philippe-fournier-viger.com/spmf/DCI_Closed.php"/>
-    <hyperlink ref="B15" r:id="rId249" display="http://www.philippe-fournier-viger.com/spmf/Charm_dCharm.php"/>
-    <hyperlink ref="B16" r:id="rId250" display="http://www.philippe-fournier-viger.com/spmf/LCM.php"/>
-    <hyperlink ref="B17" r:id="rId251" display="http://www.philippe-fournier-viger.com/spmf/FPClose.php"/>
-    <hyperlink ref="B18" r:id="rId252" display="http://www.philippe-fournier-viger.com/spmf/FPMax.php"/>
-    <hyperlink ref="B19" r:id="rId253" display="http://www.philippe-fournier-viger.com/spmf/Charm-MFI.php"/>
-    <hyperlink ref="B20" r:id="rId254" display="http://www.philippe-fournier-viger.com/spmf/DefMe.php"/>
-    <hyperlink ref="B21" r:id="rId255" display="http://www.philippe-fournier-viger.com/spmf/Pascal.php"/>
-    <hyperlink ref="B22" r:id="rId256" display="http://www.philippe-fournier-viger.com/spmf/Zart.php"/>
-    <hyperlink ref="B23" r:id="rId257" display="http://www.philippe-fournier-viger.com/spmf/AprioriRare.php"/>
-    <hyperlink ref="B24" r:id="rId258" display="http://www.philippe-fournier-viger.com/spmf/AprioriInverse.php"/>
-    <hyperlink ref="B25" r:id="rId259" display="http://www.philippe-fournier-viger.com/spmf/CORI.php"/>
-    <hyperlink ref="B26" r:id="rId260" display="http://www.philippe-fournier-viger.com/spmf/CloStream.php"/>
-    <hyperlink ref="B27" r:id="rId261" display="http://www.philippe-fournier-viger.com/spmf/estDec.php"/>
-    <hyperlink ref="B28" r:id="rId262" display="http://www.philippe-fournier-viger.com/spmf/estDecPlus.php"/>
-    <hyperlink ref="B29" r:id="rId263" display="http://www.philippe-fournier-viger.com/spmf/uapriori.php"/>
-    <hyperlink ref="B30" r:id="rId264" display="http://www.philippe-fournier-viger.com/spmf/vme.php"/>
-    <hyperlink ref="B31" r:id="rId265" display="http://www.philippe-fournier-viger.com/spmf/itemset_tree.php"/>
-    <hyperlink ref="B32" r:id="rId266" display="http://www.philippe-fournier-viger.com/spmf/memory_efficient_itemset_tree.php"/>
-    <hyperlink ref="B33" r:id="rId267" display="http://www.philippe-fournier-viger.com/spmf/MsApriori.php"/>
-    <hyperlink ref="B34" r:id="rId268" display="http://www.philippe-fournier-viger.com/spmf/CFPGrowth.php"/>
-    <hyperlink ref="B35" r:id="rId269" display="http://www.philippe-fournier-viger.com/spmf/FFIMiner.php"/>
-    <hyperlink ref="B36" r:id="rId270" display="http://www.philippe-fournier-viger.com/spmf/MFFIMiner.php"/>
-    <hyperlink ref="B37" r:id="rId271" display="http://www.philippe-fournier-viger.com/spmf/LevelWise.php"/>
-    <hyperlink ref="B38" r:id="rId272" display="http://www.philippe-fournier-viger.com/spmf/DFI-Growth.php"/>
-    <hyperlink ref="B40" r:id="rId273" display="http://www.philippe-fournier-viger.com/spmf/FHM.php"/>
-    <hyperlink ref="B39" r:id="rId274" display="http://www.philippe-fournier-viger.com/spmf/Two-Phase.php"/>
+    <hyperlink ref="C59" r:id="rId48" display="http://www.philippe-fournier-viger.com/spmf/EIHI.php"/>
+    <hyperlink ref="C60" r:id="rId49" display="http://www.philippe-fournier-viger.com/spmf/HUI-LIST_INS.php"/>
+    <hyperlink ref="C68" r:id="rId50" display="http://www.philippe-fournier-viger.com/spmf/SkyMine.php"/>
+    <hyperlink ref="C72" r:id="rId51" display="http://www.philippe-fournier-viger.com/spmf/UHUSPM.php"/>
+    <hyperlink ref="C75" r:id="rId52" display="http://www.philippe-fournier-viger.com/spmf/HUIM-BPSO-tree.php"/>
+    <hyperlink ref="C76" r:id="rId53" display="http://www.philippe-fournier-viger.com/spmf/HUIM-GA-tree.php"/>
+    <hyperlink ref="C77" r:id="rId54" display="http://www.philippe-fournier-viger.com/spmf/HUIF-PSO.php"/>
+    <hyperlink ref="C78" r:id="rId55" display="http://www.philippe-fournier-viger.com/spmf/HUIF-GA.php"/>
+    <hyperlink ref="C79" r:id="rId56" display="http://www.philippe-fournier-viger.com/spmf/HUIF-BA.php"/>
+    <hyperlink ref="C80" r:id="rId57" display="http://www.philippe-fournier-viger.com/spmf/SFUPMinerUemax.php"/>
+    <hyperlink ref="C81" r:id="rId58" display="http://www.philippe-fournier-viger.com/spmf/TKU.php"/>
+    <hyperlink ref="C82" r:id="rId59" display="http://www.philippe-fournier-viger.com/spmf/TKO.php"/>
+    <hyperlink ref="C83" r:id="rId60" display="http://www.philippe-fournier-viger.com/spmf/FHMDS.php"/>
+    <hyperlink ref="C84" r:id="rId61" display="http://www.philippe-fournier-viger.com/spmf/HAUI-Miner.php"/>
+    <hyperlink ref="C85" r:id="rId62" display="http://www.philippe-fournier-viger.com/spmf/EHAUPM.php"/>
+    <hyperlink ref="C86" r:id="rId63" display="http://www.philippe-fournier-viger.com/spmf/HAUI-MMAU.php"/>
+    <hyperlink ref="C87" r:id="rId64" display="http://www.philippe-fournier-viger.com/spmf/MEMU.php"/>
+    <hyperlink ref="B88" r:id="rId65" display="http://www.philippe-fournier-viger.com/spmf/AssociationRules.php"/>
+    <hyperlink ref="B89" r:id="rId66" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesWithLift.php"/>
+    <hyperlink ref="B90" r:id="rId67" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesGCD.php"/>
+    <hyperlink ref="B91" r:id="rId68" display="http://www.philippe-fournier-viger.com/spmf/IGBAssociationRules.php"/>
+    <hyperlink ref="B92" r:id="rId69" display="http://www.philippe-fournier-viger.com/spmf/PerfectlySporadicAssociationRules.php"/>
+    <hyperlink ref="B93" r:id="rId70" display="http://www.philippe-fournier-viger.com/spmf/ClosedAssociationRules.php"/>
+    <hyperlink ref="B94" r:id="rId71" display="http://www.philippe-fournier-viger.com/spmf/MinimalNonRedundantAssociationRules.php"/>
+    <hyperlink ref="B95" r:id="rId72" display="http://www.philippe-fournier-viger.com/spmf/IndirectAssociationRules.php"/>
+    <hyperlink ref="B96" r:id="rId73" display="http://www.philippe-fournier-viger.com/spmf/SensitiveAssociationRules.php"/>
+    <hyperlink ref="B97" r:id="rId74" display="http://www.philippe-fournier-viger.com/spmf/TopKAssociationRules.php"/>
+    <hyperlink ref="B98" r:id="rId75" display="http://www.philippe-fournier-viger.com/spmf/TopKClassAssociationRules.php"/>
+    <hyperlink ref="B99" r:id="rId76" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantAssociationRules.php"/>
+    <hyperlink ref="C88" r:id="rId77" display="http://www.philippe-fournier-viger.com/spmf/AssociationRules.php"/>
+    <hyperlink ref="C89" r:id="rId78" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesWithLift.php"/>
+    <hyperlink ref="C90" r:id="rId79" display="http://www.philippe-fournier-viger.com/spmf/AssociationRulesGCD.php"/>
+    <hyperlink ref="C91" r:id="rId80" display="http://www.philippe-fournier-viger.com/spmf/IGBAssociationRules.php"/>
+    <hyperlink ref="C92" r:id="rId81" display="http://www.philippe-fournier-viger.com/spmf/PerfectlySporadicAssociationRules.php"/>
+    <hyperlink ref="C93" r:id="rId82" display="http://www.philippe-fournier-viger.com/spmf/ClosedAssociationRules.php"/>
+    <hyperlink ref="C94" r:id="rId83" display="http://www.philippe-fournier-viger.com/spmf/MinimalNonRedundantAssociationRules.php"/>
+    <hyperlink ref="C95" r:id="rId84" display="http://www.philippe-fournier-viger.com/spmf/IndirectAssociationRules.php"/>
+    <hyperlink ref="C96" r:id="rId85" display="http://www.philippe-fournier-viger.com/spmf/SensitiveAssociationRules.php"/>
+    <hyperlink ref="C97" r:id="rId86" display="http://www.philippe-fournier-viger.com/spmf/TopKAssociationRules.php"/>
+    <hyperlink ref="C98" r:id="rId87" display="http://www.philippe-fournier-viger.com/spmf/TopKClassAssociationRules.php"/>
+    <hyperlink ref="C99" r:id="rId88" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantAssociationRules.php"/>
+    <hyperlink ref="B100" r:id="rId89" display="http://www.philippe-fournier-viger.com/spmf/KMeans.php"/>
+    <hyperlink ref="B101" r:id="rId90" display="http://www.philippe-fournier-viger.com/spmf/DBScan.php"/>
+    <hyperlink ref="B102" r:id="rId91" display="http://www.philippe-fournier-viger.com/spmf/Optics.php"/>
+    <hyperlink ref="B103" r:id="rId92" display="http://www.philippe-fournier-viger.com/spmf/BisectingKMeans.php"/>
+    <hyperlink ref="B104" r:id="rId93" display="http://www.philippe-fournier-viger.com/spmf/HierarchicalClustering.php"/>
+    <hyperlink ref="B105" r:id="rId94" display="http://www.philippe-fournier-viger.com/spmf/ClusterViewer.php"/>
+    <hyperlink ref="B106" r:id="rId95" display="http://www.philippe-fournier-viger.com/spmf/InstanceViewer.php"/>
+    <hyperlink ref="C100" r:id="rId96" display="http://www.philippe-fournier-viger.com/spmf/KMeans.php"/>
+    <hyperlink ref="C101" r:id="rId97" display="http://www.philippe-fournier-viger.com/spmf/DBScan.php"/>
+    <hyperlink ref="C102" r:id="rId98" display="http://www.philippe-fournier-viger.com/spmf/Optics.php"/>
+    <hyperlink ref="C103" r:id="rId99" display="http://www.philippe-fournier-viger.com/spmf/BisectingKMeans.php"/>
+    <hyperlink ref="C104" r:id="rId100" display="http://www.philippe-fournier-viger.com/spmf/HierarchicalClustering.php"/>
+    <hyperlink ref="C105" r:id="rId101" display="http://www.philippe-fournier-viger.com/spmf/ClusterViewer.php"/>
+    <hyperlink ref="C106" r:id="rId102" display="http://www.philippe-fournier-viger.com/spmf/InstanceViewer.php"/>
+    <hyperlink ref="B107" r:id="rId103" display="http://www.philippe-fournier-viger.com/spmf/PrefixSpan.php"/>
+    <hyperlink ref="B108" r:id="rId104" display="http://www.philippe-fournier-viger.com/spmf/GSP.php"/>
+    <hyperlink ref="B109" r:id="rId105" display="http://www.philippe-fournier-viger.com/spmf/SPADE.php"/>
+    <hyperlink ref="B110" r:id="rId106" display="http://www.philippe-fournier-viger.com/spmf/CM-SPADE.php"/>
+    <hyperlink ref="B111" r:id="rId107" display="http://www.philippe-fournier-viger.com/spmf/SPAM.php"/>
+    <hyperlink ref="B112" r:id="rId108" display="http://www.philippe-fournier-viger.com/spmf/CM-SPAM.php"/>
+    <hyperlink ref="B113" r:id="rId109" display="http://www.philippe-fournier-viger.com/spmf/FAST.php"/>
+    <hyperlink ref="B114" r:id="rId110" display="http://www.philippe-fournier-viger.com/spmf/LAPIN.php"/>
+    <hyperlink ref="B115" r:id="rId111" display="http://www.philippe-fournier-viger.com/spmf/ClaSP.php"/>
+    <hyperlink ref="B116" r:id="rId112" display="http://www.philippe-fournier-viger.com/spmf/CM-ClaSP.php"/>
+    <hyperlink ref="B117" r:id="rId113" display="http://www.philippe-fournier-viger.com/spmf/CLOFAST.php"/>
+    <hyperlink ref="B118" r:id="rId114" display="http://www.philippe-fournier-viger.com/spmf/CloSpan.php"/>
+    <hyperlink ref="B119" r:id="rId115" display="http://www.philippe-fournier-viger.com/spmf/BIDEPlus.php"/>
+    <hyperlink ref="B120" r:id="rId116" display="http://www.philippe-fournier-viger.com/spmf/SPAM_PrefixSpan_Closed.php"/>
+    <hyperlink ref="B121" r:id="rId117" display="http://www.philippe-fournier-viger.com/spmf/MaxSP.php"/>
+    <hyperlink ref="B122" r:id="rId118" display="http://www.philippe-fournier-viger.com/spmf/VMSP.php"/>
+    <hyperlink ref="B123" r:id="rId119" display="http://www.philippe-fournier-viger.com/spmf/FEAT.php"/>
+    <hyperlink ref="B124" r:id="rId120" display="http://www.philippe-fournier-viger.com/spmf/FSGP.php"/>
+    <hyperlink ref="B125" r:id="rId121" display="http://www.philippe-fournier-viger.com/spmf/VGEN.php"/>
+    <hyperlink ref="B126" r:id="rId122" display="http://www.philippe-fournier-viger.com/spmf/GoKrimp.php"/>
+    <hyperlink ref="B127" r:id="rId123" display="http://www.philippe-fournier-viger.com/spmf/TKS.php"/>
+    <hyperlink ref="B128" r:id="rId124" display="http://www.philippe-fournier-viger.com/spmf/TSP.php"/>
+    <hyperlink ref="B129" r:id="rId125" display="http://www.philippe-fournier-viger.com/spmf/MultiDimensional_SequentialPatterns.php"/>
+    <hyperlink ref="B130" r:id="rId126" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatterns.php"/>
+    <hyperlink ref="B131" r:id="rId127" display="http://www.philippe-fournier-viger.com/spmf/HirateYamana.php"/>
+    <hyperlink ref="B132" r:id="rId128" display="http://www.philippe-fournier-viger.com/spmf/ClosedSequentialPatterns_TimeConstraints.php"/>
+    <hyperlink ref="B133" r:id="rId129" display="http://www.philippe-fournier-viger.com/spmf/SequentialPatterns_TimeConstraintsValuesItems.php"/>
+    <hyperlink ref="B134" r:id="rId130" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatternsWithTime.php"/>
+    <hyperlink ref="B135" r:id="rId131" display="http://www.philippe-fournier-viger.com/spmf/ProSecCo.php"/>
+    <hyperlink ref="C107" r:id="rId132" display="http://www.philippe-fournier-viger.com/spmf/PrefixSpan.php"/>
+    <hyperlink ref="C108" r:id="rId133" display="http://www.philippe-fournier-viger.com/spmf/GSP.php"/>
+    <hyperlink ref="C109" r:id="rId134" display="http://www.philippe-fournier-viger.com/spmf/SPADE.php"/>
+    <hyperlink ref="C110" r:id="rId135" display="http://www.philippe-fournier-viger.com/spmf/CM-SPADE.php"/>
+    <hyperlink ref="C111" r:id="rId136" display="http://www.philippe-fournier-viger.com/spmf/SPAM.php"/>
+    <hyperlink ref="C112" r:id="rId137" display="http://www.philippe-fournier-viger.com/spmf/CM-SPAM.php"/>
+    <hyperlink ref="C113" r:id="rId138" display="http://www.philippe-fournier-viger.com/spmf/FAST.php"/>
+    <hyperlink ref="C114" r:id="rId139" display="http://www.philippe-fournier-viger.com/spmf/LAPIN.php"/>
+    <hyperlink ref="C115" r:id="rId140" display="http://www.philippe-fournier-viger.com/spmf/ClaSP.php"/>
+    <hyperlink ref="C116" r:id="rId141" display="http://www.philippe-fournier-viger.com/spmf/CM-ClaSP.php"/>
+    <hyperlink ref="C117" r:id="rId142" display="http://www.philippe-fournier-viger.com/spmf/CLOFAST.php"/>
+    <hyperlink ref="C118" r:id="rId143" display="http://www.philippe-fournier-viger.com/spmf/CloSpan.php"/>
+    <hyperlink ref="C119" r:id="rId144" display="http://www.philippe-fournier-viger.com/spmf/BIDEPlus.php"/>
+    <hyperlink ref="C120" r:id="rId145" display="http://www.philippe-fournier-viger.com/spmf/SPAM_PrefixSpan_Closed.php"/>
+    <hyperlink ref="C121" r:id="rId146" display="http://www.philippe-fournier-viger.com/spmf/MaxSP.php"/>
+    <hyperlink ref="C122" r:id="rId147" display="http://www.philippe-fournier-viger.com/spmf/VMSP.php"/>
+    <hyperlink ref="C123" r:id="rId148" display="http://www.philippe-fournier-viger.com/spmf/FEAT.php"/>
+    <hyperlink ref="C124" r:id="rId149" display="http://www.philippe-fournier-viger.com/spmf/FSGP.php"/>
+    <hyperlink ref="C125" r:id="rId150" display="http://www.philippe-fournier-viger.com/spmf/VGEN.php"/>
+    <hyperlink ref="C126" r:id="rId151" display="http://www.philippe-fournier-viger.com/spmf/GoKrimp.php"/>
+    <hyperlink ref="C127" r:id="rId152" display="http://www.philippe-fournier-viger.com/spmf/TKS.php"/>
+    <hyperlink ref="C128" r:id="rId153" display="http://www.philippe-fournier-viger.com/spmf/TSP.php"/>
+    <hyperlink ref="C129" r:id="rId154" display="http://www.philippe-fournier-viger.com/spmf/MultiDimensional_SequentialPatterns.php"/>
+    <hyperlink ref="C130" r:id="rId155" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatterns.php"/>
+    <hyperlink ref="C131" r:id="rId156" display="http://www.philippe-fournier-viger.com/spmf/HirateYamana.php"/>
+    <hyperlink ref="C132" r:id="rId157" display="http://www.philippe-fournier-viger.com/spmf/ClosedSequentialPatterns_TimeConstraints.php"/>
+    <hyperlink ref="C133" r:id="rId158" display="http://www.philippe-fournier-viger.com/spmf/SequentialPatterns_TimeConstraintsValuesItems.php"/>
+    <hyperlink ref="C134" r:id="rId159" display="http://www.philippe-fournier-viger.com/spmf/ClosedMultiDimensional_SequentialPatternsWithTime.php"/>
+    <hyperlink ref="C135" r:id="rId160" display="http://www.philippe-fournier-viger.com/spmf/ProSecCo.php"/>
+    <hyperlink ref="B136" r:id="rId161" display="http://www.philippe-fournier-viger.com/spmf/CMRules.php"/>
+    <hyperlink ref="B137" r:id="rId162" display="http://www.philippe-fournier-viger.com/spmf/CMDeo.php"/>
+    <hyperlink ref="B138" r:id="rId163" display="http://www.philippe-fournier-viger.com/spmf/RuleGrowth.php"/>
+    <hyperlink ref="B139" r:id="rId164" display="http://www.philippe-fournier-viger.com/spmf/ERMiner.php"/>
+    <hyperlink ref="B140" r:id="rId165" display="http://www.philippe-fournier-viger.com/spmf/RuleGen.php"/>
+    <hyperlink ref="B141" r:id="rId166" display="http://www.philippe-fournier-viger.com/spmf/TRuleGrowth.php"/>
+    <hyperlink ref="B142" r:id="rId167" display="http://www.philippe-fournier-viger.com/spmf/TopSeqRules.php"/>
+    <hyperlink ref="B143" r:id="rId168" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantSequentialRules.php"/>
+    <hyperlink ref="C136" r:id="rId169" display="http://www.philippe-fournier-viger.com/spmf/CMRules.php"/>
+    <hyperlink ref="C137" r:id="rId170" display="http://www.philippe-fournier-viger.com/spmf/CMDeo.php"/>
+    <hyperlink ref="C138" r:id="rId171" display="http://www.philippe-fournier-viger.com/spmf/RuleGrowth.php"/>
+    <hyperlink ref="C139" r:id="rId172" display="http://www.philippe-fournier-viger.com/spmf/ERMiner.php"/>
+    <hyperlink ref="C140" r:id="rId173" display="http://www.philippe-fournier-viger.com/spmf/RuleGen.php"/>
+    <hyperlink ref="C141" r:id="rId174" display="http://www.philippe-fournier-viger.com/spmf/TRuleGrowth.php"/>
+    <hyperlink ref="C142" r:id="rId175" display="http://www.philippe-fournier-viger.com/spmf/TopSeqRules.php"/>
+    <hyperlink ref="C143" r:id="rId176" display="http://www.philippe-fournier-viger.com/spmf/TopKNonRedundantSequentialRules.php"/>
+    <hyperlink ref="B144" r:id="rId177" display="http://www.philippe-fournier-viger.com/spmf/CPTPlus.php"/>
+    <hyperlink ref="B145" r:id="rId178" display="http://www.philippe-fournier-viger.com/spmf/CPT.php"/>
+    <hyperlink ref="B146" r:id="rId179" display="http://www.philippe-fournier-viger.com/spmf/PPM.php"/>
+    <hyperlink ref="B147" r:id="rId180" display="http://www.philippe-fournier-viger.com/spmf/DG.php"/>
+    <hyperlink ref="B148" r:id="rId181" display="http://www.philippe-fournier-viger.com/spmf/AKOM.php"/>
+    <hyperlink ref="B149" r:id="rId182" display="http://www.philippe-fournier-viger.com/spmf/TDAG.php"/>
+    <hyperlink ref="B150" r:id="rId183" display="http://www.philippe-fournier-viger.com/spmf/LZ78.php"/>
+    <hyperlink ref="B151" r:id="rId184" display="http://www.philippe-fournier-viger.com/spmf/CompareSequencePredictionModels.php"/>
+    <hyperlink ref="C144" r:id="rId185" display="http://www.philippe-fournier-viger.com/spmf/CPTPlus.php"/>
+    <hyperlink ref="C145" r:id="rId186" display="http://www.philippe-fournier-viger.com/spmf/CPT.php"/>
+    <hyperlink ref="C146" r:id="rId187" display="http://www.philippe-fournier-viger.com/spmf/PPM.php"/>
+    <hyperlink ref="C147" r:id="rId188" display="http://www.philippe-fournier-viger.com/spmf/DG.php"/>
+    <hyperlink ref="C148" r:id="rId189" display="http://www.philippe-fournier-viger.com/spmf/AKOM.php"/>
+    <hyperlink ref="C149" r:id="rId190" display="http://www.philippe-fournier-viger.com/spmf/TDAG.php"/>
+    <hyperlink ref="C150" r:id="rId191" display="http://www.philippe-fournier-viger.com/spmf/LZ78.php"/>
+    <hyperlink ref="C151" r:id="rId192" display="http://www.philippe-fournier-viger.com/spmf/CompareSequencePredictionModels.php"/>
+    <hyperlink ref="B152" r:id="rId193" display="http://www.philippe-fournier-viger.com/spmf/PFPM.php"/>
+    <hyperlink ref="B153" r:id="rId194" display="http://www.philippe-fournier-viger.com/spmf/PHM.php"/>
+    <hyperlink ref="C152" r:id="rId195" display="http://www.philippe-fournier-viger.com/spmf/PFPM.php"/>
+    <hyperlink ref="C153" r:id="rId196" display="http://www.philippe-fournier-viger.com/spmf/PHM.php"/>
+    <hyperlink ref="B154" r:id="rId197" display="http://www.philippe-fournier-viger.com/spmf/TUP.php"/>
+    <hyperlink ref="B155" r:id="rId198" display="http://www.philippe-fournier-viger.com/spmf/UP_SPAN.php"/>
+    <hyperlink ref="C154" r:id="rId199" display="http://www.philippe-fournier-viger.com/spmf/TUP.php"/>
+    <hyperlink ref="C155" r:id="rId200" display="http://www.philippe-fournier-viger.com/spmf/UP_SPAN.php"/>
+    <hyperlink ref="B156" r:id="rId201" display="http://www.philippe-fournier-viger.com/spmf/TextClusterer.php"/>
+    <hyperlink ref="B157" r:id="rId202" display="http://www.philippe-fournier-viger.com/spmf/TextClassifierNaiveBayes.php"/>
+    <hyperlink ref="C156" r:id="rId203" display="http://www.philippe-fournier-viger.com/spmf/TextClusterer.php"/>
+    <hyperlink ref="C157" r:id="rId204" display="http://www.philippe-fournier-viger.com/spmf/TextClassifierNaiveBayes.php"/>
+    <hyperlink ref="B2" r:id="rId205" display="http://www.philippe-fournier-viger.com/spmf/Apriori.php"/>
+    <hyperlink ref="B3" r:id="rId206" display="http://www.philippe-fournier-viger.com/spmf/AprioriTID.php"/>
+    <hyperlink ref="B4" r:id="rId207" display="http://www.philippe-fournier-viger.com/spmf/FPGrowth.php"/>
+    <hyperlink ref="B5" r:id="rId208" display="http://www.philippe-fournier-viger.com/spmf/Relim.php"/>
+    <hyperlink ref="B6" r:id="rId209" display="http://www.philippe-fournier-viger.com/spmf/Eclat_dEclat.php"/>
+    <hyperlink ref="B7" r:id="rId210" display="http://www.philippe-fournier-viger.com/spmf/HMine.php"/>
+    <hyperlink ref="B8" r:id="rId211" display="http://www.philippe-fournier-viger.com/spmf/FIN.php"/>
+    <hyperlink ref="B9" r:id="rId212" display="http://www.philippe-fournier-viger.com/spmf/DFIN.php"/>
+    <hyperlink ref="B10" r:id="rId213" display="http://www.philippe-fournier-viger.com/spmf/NegFIN.php"/>
+    <hyperlink ref="B11" r:id="rId214" display="http://www.philippe-fournier-viger.com/spmf/PrePost.php"/>
+    <hyperlink ref="B12" r:id="rId215" display="http://www.philippe-fournier-viger.com/spmf/LCMFreq.php"/>
+    <hyperlink ref="B13" r:id="rId216" display="http://www.philippe-fournier-viger.com/spmf/AprioriClose.php"/>
+    <hyperlink ref="B14" r:id="rId217" display="http://www.philippe-fournier-viger.com/spmf/DCI_Closed.php"/>
+    <hyperlink ref="B15" r:id="rId218" display="http://www.philippe-fournier-viger.com/spmf/Charm_dCharm.php"/>
+    <hyperlink ref="B16" r:id="rId219" display="http://www.philippe-fournier-viger.com/spmf/LCM.php"/>
+    <hyperlink ref="B17" r:id="rId220" display="http://www.philippe-fournier-viger.com/spmf/FPClose.php"/>
+    <hyperlink ref="B18" r:id="rId221" display="http://www.philippe-fournier-viger.com/spmf/FPMax.php"/>
+    <hyperlink ref="B19" r:id="rId222" display="http://www.philippe-fournier-viger.com/spmf/Charm-MFI.php"/>
+    <hyperlink ref="B20" r:id="rId223" display="http://www.philippe-fournier-viger.com/spmf/DefMe.php"/>
+    <hyperlink ref="B21" r:id="rId224" display="http://www.philippe-fournier-viger.com/spmf/Pascal.php"/>
+    <hyperlink ref="B22" r:id="rId225" display="http://www.philippe-fournier-viger.com/spmf/Zart.php"/>
+    <hyperlink ref="B23" r:id="rId226" display="http://www.philippe-fournier-viger.com/spmf/AprioriRare.php"/>
+    <hyperlink ref="B24" r:id="rId227" display="http://www.philippe-fournier-viger.com/spmf/AprioriInverse.php"/>
+    <hyperlink ref="B25" r:id="rId228" display="http://www.philippe-fournier-viger.com/spmf/CORI.php"/>
+    <hyperlink ref="B26" r:id="rId229" display="http://www.philippe-fournier-viger.com/spmf/CloStream.php"/>
+    <hyperlink ref="B27" r:id="rId230" display="http://www.philippe-fournier-viger.com/spmf/estDec.php"/>
+    <hyperlink ref="B28" r:id="rId231" display="http://www.philippe-fournier-viger.com/spmf/estDecPlus.php"/>
+    <hyperlink ref="B29" r:id="rId232" display="http://www.philippe-fournier-viger.com/spmf/uapriori.php"/>
+    <hyperlink ref="B30" r:id="rId233" display="http://www.philippe-fournier-viger.com/spmf/vme.php"/>
+    <hyperlink ref="B31" r:id="rId234" display="http://www.philippe-fournier-viger.com/spmf/itemset_tree.php"/>
+    <hyperlink ref="B32" r:id="rId235" display="http://www.philippe-fournier-viger.com/spmf/memory_efficient_itemset_tree.php"/>
+    <hyperlink ref="B33" r:id="rId236" display="http://www.philippe-fournier-viger.com/spmf/MsApriori.php"/>
+    <hyperlink ref="B34" r:id="rId237" display="http://www.philippe-fournier-viger.com/spmf/CFPGrowth.php"/>
+    <hyperlink ref="B35" r:id="rId238" display="http://www.philippe-fournier-viger.com/spmf/FFIMiner.php"/>
+    <hyperlink ref="B36" r:id="rId239" display="http://www.philippe-fournier-viger.com/spmf/MFFIMiner.php"/>
+    <hyperlink ref="B37" r:id="rId240" display="http://www.philippe-fournier-viger.com/spmf/LevelWise.php"/>
+    <hyperlink ref="B38" r:id="rId241" display="http://www.philippe-fournier-viger.com/spmf/DFI-Growth.php"/>
+    <hyperlink ref="B40" r:id="rId242" display="http://www.philippe-fournier-viger.com/spmf/FHM.php"/>
+    <hyperlink ref="B39" r:id="rId243" display="http://www.philippe-fournier-viger.com/spmf/Two-Phase.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId275"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId244"/>
 </worksheet>
 </file>
--- a/SPMF.xlsx
+++ b/SPMF.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mahajvi1\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="SPMF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="334">
   <si>
     <t>Itemset Mining (Frequent Itemsets, Rare Itemsets, etc.)</t>
   </si>
@@ -1022,13 +1017,19 @@
   </si>
   <si>
     <t>java -jar spmf.jar run HUIM-GA contextHUIM.txt output.txt 40</t>
+  </si>
+  <si>
+    <t>File with -1</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1147,7 +1148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1182,7 +1183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1359,27 +1360,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="C142" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="151.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +1395,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1465,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1479,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="25.5">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1521,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1549,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1563,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="25.5">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1605,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1633,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1661,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +1717,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1776,7 +1778,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1814,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1870,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -2064,7 +2066,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2106,7 +2108,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -2162,7 +2164,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -2173,7 +2175,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -2184,7 +2186,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>38</v>
       </c>
@@ -2198,7 +2200,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -2240,7 +2242,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>38</v>
       </c>
@@ -2254,7 +2256,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>38</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>38</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>38</v>
       </c>
@@ -2321,7 +2323,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>38</v>
       </c>
@@ -2335,7 +2337,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>38</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>38</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>38</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -2387,8 +2389,11 @@
       <c r="C75" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D75" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>38</v>
       </c>
@@ -2398,8 +2403,11 @@
       <c r="C76" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D76" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>38</v>
       </c>
@@ -2409,8 +2417,11 @@
       <c r="C77" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -2420,8 +2431,11 @@
       <c r="C78" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D78" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -2431,8 +2445,11 @@
       <c r="C79" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>38</v>
       </c>
@@ -2442,8 +2459,11 @@
       <c r="C80" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>38</v>
       </c>
@@ -2453,8 +2473,11 @@
       <c r="C81" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -2464,8 +2487,11 @@
       <c r="C82" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>38</v>
       </c>
@@ -2475,8 +2501,11 @@
       <c r="C83" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>38</v>
       </c>
@@ -2486,8 +2515,11 @@
       <c r="C84" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -2497,8 +2529,11 @@
       <c r="C85" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -2508,8 +2543,11 @@
       <c r="C86" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -2519,8 +2557,11 @@
       <c r="C87" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2530,8 +2571,11 @@
       <c r="C88" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2541,8 +2585,11 @@
       <c r="C89" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2552,8 +2599,11 @@
       <c r="C90" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2563,8 +2613,11 @@
       <c r="C91" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2574,8 +2627,11 @@
       <c r="C92" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -2585,8 +2641,11 @@
       <c r="C93" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>88</v>
       </c>
@@ -2596,8 +2655,11 @@
       <c r="C94" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>88</v>
       </c>
@@ -2607,8 +2669,11 @@
       <c r="C95" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>88</v>
       </c>
@@ -2618,8 +2683,11 @@
       <c r="C96" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>88</v>
       </c>
@@ -2629,8 +2697,11 @@
       <c r="C97" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>88</v>
       </c>
@@ -2640,8 +2711,11 @@
       <c r="C98" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>88</v>
       </c>
@@ -2651,8 +2725,11 @@
       <c r="C99" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -2663,7 +2740,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -2674,7 +2751,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2685,7 +2762,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>108</v>
       </c>
@@ -2696,7 +2773,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2707,7 +2784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -2718,7 +2795,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2729,7 +2806,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -2739,8 +2816,11 @@
       <c r="C107" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -2750,8 +2830,11 @@
       <c r="C108" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -2761,8 +2844,11 @@
       <c r="C109" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -2772,8 +2858,11 @@
       <c r="C110" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -2783,8 +2872,11 @@
       <c r="C111" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -2794,8 +2886,11 @@
       <c r="C112" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -2805,8 +2900,11 @@
       <c r="C113" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -2816,8 +2914,11 @@
       <c r="C114" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -2827,8 +2928,11 @@
       <c r="C115" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -2838,8 +2942,11 @@
       <c r="C116" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -2849,8 +2956,11 @@
       <c r="C117" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -2860,8 +2970,11 @@
       <c r="C118" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -2871,8 +2984,11 @@
       <c r="C119" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>138</v>
       </c>
@@ -2882,8 +2998,11 @@
       <c r="C120" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>138</v>
       </c>
@@ -2893,8 +3012,11 @@
       <c r="C121" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>138</v>
       </c>
@@ -2904,8 +3026,11 @@
       <c r="C122" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -2915,8 +3040,11 @@
       <c r="C123" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>138</v>
       </c>
@@ -2926,8 +3054,11 @@
       <c r="C124" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -2937,8 +3068,11 @@
       <c r="C125" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -2948,8 +3082,11 @@
       <c r="C126" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -2959,8 +3096,11 @@
       <c r="C127" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>138</v>
       </c>
@@ -2970,8 +3110,11 @@
       <c r="C128" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>138</v>
       </c>
@@ -2981,8 +3124,11 @@
       <c r="C129" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -2992,8 +3138,11 @@
       <c r="C130" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>138</v>
       </c>
@@ -3003,8 +3152,11 @@
       <c r="C131" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -3014,8 +3166,11 @@
       <c r="C132" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -3025,8 +3180,11 @@
       <c r="C133" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -3036,8 +3194,11 @@
       <c r="C134" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -3047,8 +3208,11 @@
       <c r="C135" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -3058,8 +3222,11 @@
       <c r="C136" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3069,8 +3236,11 @@
       <c r="C137" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>139</v>
       </c>
@@ -3080,8 +3250,11 @@
       <c r="C138" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>139</v>
       </c>
@@ -3091,8 +3264,11 @@
       <c r="C139" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3102,8 +3278,11 @@
       <c r="C140" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3113,8 +3292,11 @@
       <c r="C141" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>139</v>
       </c>
@@ -3124,8 +3306,11 @@
       <c r="C142" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -3135,96 +3320,121 @@
       <c r="C143" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>148</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>148</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>148</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>148</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="5"/>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>159</v>
       </c>
@@ -3234,8 +3444,11 @@
       <c r="C152" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -3245,8 +3458,11 @@
       <c r="C153" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -3256,8 +3472,11 @@
       <c r="C154" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>160</v>
       </c>
@@ -3267,8 +3486,11 @@
       <c r="C155" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>163</v>
       </c>
@@ -3279,7 +3501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>163</v>
       </c>
